--- a/2021 SAT Scores.xlsx
+++ b/2021 SAT Scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carts\Desktop\School\F23\ECON 3740\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{628C9174-9EEC-4CD8-9886-74FADF570260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B47A57-5C01-42F6-A267-70FF95205C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{22C0818C-AA41-452F-A663-D8A39AF2BA50}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Agriculture, agriculture operations, and related sciences </t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Seniors who had taken the SATs in 2021, Percentage distribution</t>
+  </si>
+  <si>
+    <t>Degree Specification/Program</t>
   </si>
 </sst>
 </file>
@@ -305,9 +308,6 @@
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
@@ -328,6 +328,9 @@
     </xf>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,9 +651,7 @@
   </sheetPr>
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1809,26 +1810,28 @@
     <col min="16150" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26"/>
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3">
@@ -2049,12 +2052,12 @@
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
@@ -2072,12 +2075,12 @@
       <c r="U13" s="25"/>
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -2095,12 +2098,12 @@
       <c r="U14" s="25"/>
     </row>
     <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
@@ -2118,12 +2121,12 @@
       <c r="U15" s="25"/>
     </row>
     <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -2141,12 +2144,12 @@
       <c r="U16" s="25"/>
     </row>
     <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
@@ -2164,12 +2167,12 @@
       <c r="U17" s="25"/>
     </row>
     <row r="18" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -2187,12 +2190,12 @@
       <c r="U18" s="20"/>
     </row>
     <row r="19" spans="1:21" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>

--- a/2021 SAT Scores.xlsx
+++ b/2021 SAT Scores.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carts\Desktop\School\F23\ECON 3740\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B47A57-5C01-42F6-A267-70FF95205C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AC7F682-93C1-4571-BCAE-7677D294AC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{22C0818C-AA41-452F-A663-D8A39AF2BA50}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{22C0818C-AA41-452F-A663-D8A39AF2BA50}"/>
   </bookViews>
   <sheets>
     <sheet name="2021 SAT Scores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_Regression_Int" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2021 SAT Scores'!$A$1:$U$19</definedName>
-    <definedName name="_xlnm.Print_Area">'2021 SAT Scores'!$A$1:$F$20</definedName>
-    <definedName name="Print_Area_MI" localSheetId="0">'2021 SAT Scores'!$A$1:$F$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2021 SAT Scores'!$A$2:$U$20</definedName>
+    <definedName name="_xlnm.Print_Area">'2021 SAT Scores'!$A$2:$F$21</definedName>
+    <definedName name="Print_Area_MI" localSheetId="0">'2021 SAT Scores'!$A$2:$F$21</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -77,10 +77,6 @@
     <t xml:space="preserve">All students </t>
   </si>
   <si>
-    <t xml:space="preserve">Seniors who had taken the SATs in 2021, Number
-(in thousands) </t>
-  </si>
-  <si>
     <t>Mean Score, Total SAT score</t>
   </si>
   <si>
@@ -90,10 +86,14 @@
     <t>Mean Score, Math</t>
   </si>
   <si>
-    <t>Seniors who had taken the SATs in 2021, Percentage distribution</t>
+    <t>Degree Specification/Program</t>
   </si>
   <si>
-    <t>Degree Specification/Program</t>
+    <t xml:space="preserve">Seniors who had taken the SATs, Number
+(in thousands) </t>
+  </si>
+  <si>
+    <t>Seniors who had taken the SATs, Percentage distribution</t>
   </si>
 </sst>
 </file>
@@ -129,25 +129,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -181,17 +168,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -251,6 +227,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -261,35 +248,35 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -299,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -308,29 +295,29 @@
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="distributed" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,9 +636,11 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1810,277 +1799,264 @@
     <col min="16150" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33">
+        <v>2021</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="D2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="30" t="s">
+      <c r="E2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="31" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="3">
         <v>1509.133</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C3" s="6">
         <v>100</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D3" s="4">
         <v>1060</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E3" s="5">
         <v>533</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F3" s="21">
         <v>528</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="11">
-        <v>232.71700000000001</v>
-      </c>
-      <c r="C3" s="22">
-        <v>23.712370697033698</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1058</v>
-      </c>
-      <c r="E3" s="9">
-        <v>533</v>
-      </c>
-      <c r="F3" s="17">
-        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="11">
-        <v>300.89999999999998</v>
+        <v>232.71700000000001</v>
       </c>
       <c r="C4" s="22">
-        <v>30.659781377112257</v>
+        <v>23.712370697033698</v>
       </c>
       <c r="D4" s="9">
-        <v>1136</v>
+        <v>1058</v>
       </c>
       <c r="E4" s="9">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="F4" s="17">
-        <v>568</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="11">
-        <v>208.803</v>
+        <v>300.89999999999998</v>
       </c>
       <c r="C5" s="22">
-        <v>21.275687374161414</v>
+        <v>30.659781377112257</v>
       </c>
       <c r="D5" s="9">
-        <v>1187</v>
+        <v>1136</v>
       </c>
       <c r="E5" s="9">
-        <v>594</v>
+        <v>568</v>
       </c>
       <c r="F5" s="17">
-        <v>593</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11">
+        <v>208.803</v>
+      </c>
+      <c r="C6" s="22">
+        <v>21.275687374161414</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1187</v>
+      </c>
+      <c r="E6" s="9">
+        <v>594</v>
+      </c>
+      <c r="F6" s="17">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B7" s="11">
         <v>124.774</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C7" s="22">
         <v>12.713670859248269</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="9">
         <v>1089</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="9">
         <v>545</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F7" s="17">
         <v>543</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="7">
-        <v>15.888999999999999</v>
-      </c>
-      <c r="C7" s="23">
-        <v>1.3580190989330887</v>
-      </c>
-      <c r="D7" s="9">
-        <v>977</v>
-      </c>
-      <c r="E7" s="9">
-        <v>497</v>
-      </c>
-      <c r="F7" s="17">
-        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="7">
+        <v>15.888999999999999</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1.3580190989330887</v>
+      </c>
+      <c r="D8" s="9">
+        <v>977</v>
+      </c>
+      <c r="E8" s="9">
+        <v>497</v>
+      </c>
+      <c r="F8" s="17">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B9" s="7">
         <v>62.091000000000001</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C9" s="8">
         <v>5.3068641117662798</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D9" s="24">
         <v>1182</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="9">
         <v>582</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="17">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B10" s="7">
         <v>119.666</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C10" s="8">
         <v>10.227749606200957</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D10" s="24">
         <v>1167</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>573</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F10" s="17">
         <v>595</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+    <row r="11" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B11" s="7">
         <v>4.6740000000000004</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C11" s="8">
         <v>0.39948274079005963</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D11" s="24">
         <v>1181</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>604</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="17">
         <v>577</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7">
-        <v>11.81</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1.0093904939517766</v>
-      </c>
-      <c r="D11" s="24">
-        <v>1273</v>
-      </c>
-      <c r="E11" s="9">
-        <v>612</v>
-      </c>
-      <c r="F11" s="17">
-        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="7">
-        <v>48.143000000000001</v>
-      </c>
-      <c r="C12" s="23">
-        <v>4.1147406054462641</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1083</v>
+        <v>11.81</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1.0093904939517766</v>
+      </c>
+      <c r="D12" s="24">
+        <v>1273</v>
       </c>
       <c r="E12" s="9">
-        <v>556</v>
-      </c>
-      <c r="F12" s="24">
-        <v>527</v>
-      </c>
-      <c r="G12" s="12"/>
+        <v>612</v>
+      </c>
+      <c r="F12" s="17">
+        <v>661</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
+      <c r="A13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7">
+        <v>48.143000000000001</v>
+      </c>
+      <c r="C13" s="23">
+        <v>4.1147406054462641</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1083</v>
+      </c>
+      <c r="E13" s="9">
+        <v>556</v>
+      </c>
+      <c r="F13" s="24">
+        <v>527</v>
+      </c>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -2166,30 +2142,30 @@
       <c r="T17" s="25"/>
       <c r="U17" s="25"/>
     </row>
-    <row r="18" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
     </row>
-    <row r="19" spans="1:21" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -2212,7 +2188,33 @@
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
     </row>
+    <row r="20" spans="1:21" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.65" top="0.8" bottom="0.7" header="0.5" footer="0.5"/>
   <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">

--- a/2021 SAT Scores.xlsx
+++ b/2021 SAT Scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carts\Desktop\School\F23\ECON 3740\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AC7F682-93C1-4571-BCAE-7677D294AC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06427580-112C-4049-8FF8-62488C7DEF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{22C0818C-AA41-452F-A663-D8A39AF2BA50}"/>
   </bookViews>
@@ -17,9 +17,9 @@
   </sheets>
   <definedNames>
     <definedName name="_Regression_Int" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2021 SAT Scores'!$A$2:$U$20</definedName>
-    <definedName name="_xlnm.Print_Area">'2021 SAT Scores'!$A$2:$F$21</definedName>
-    <definedName name="Print_Area_MI" localSheetId="0">'2021 SAT Scores'!$A$2:$F$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2021 SAT Scores'!$A$1:$U$19</definedName>
+    <definedName name="_xlnm.Print_Area">'2021 SAT Scores'!$A$1:$F$20</definedName>
+    <definedName name="Print_Area_MI" localSheetId="0">'2021 SAT Scores'!$A$1:$F$20</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -242,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -315,9 +315,6 @@
     </xf>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,10 +633,10 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1799,264 +1796,277 @@
     <col min="16150" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33">
-        <v>2021</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>13</v>
+    <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1509.133</v>
+      </c>
+      <c r="C2" s="6">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1060</v>
+      </c>
+      <c r="E2" s="5">
+        <v>533</v>
+      </c>
+      <c r="F2" s="21">
+        <v>528</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1509.133</v>
-      </c>
-      <c r="C3" s="6">
-        <v>100</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1060</v>
-      </c>
-      <c r="E3" s="5">
+    <row r="3" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11">
+        <v>232.71700000000001</v>
+      </c>
+      <c r="C3" s="22">
+        <v>23.712370697033698</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1058</v>
+      </c>
+      <c r="E3" s="9">
         <v>533</v>
       </c>
-      <c r="F3" s="21">
-        <v>528</v>
+      <c r="F3" s="17">
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="11">
-        <v>232.71700000000001</v>
+        <v>300.89999999999998</v>
       </c>
       <c r="C4" s="22">
-        <v>23.712370697033698</v>
+        <v>30.659781377112257</v>
       </c>
       <c r="D4" s="9">
-        <v>1058</v>
+        <v>1136</v>
       </c>
       <c r="E4" s="9">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="F4" s="17">
-        <v>525</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="11">
-        <v>300.89999999999998</v>
+        <v>208.803</v>
       </c>
       <c r="C5" s="22">
-        <v>30.659781377112257</v>
+        <v>21.275687374161414</v>
       </c>
       <c r="D5" s="9">
-        <v>1136</v>
+        <v>1187</v>
       </c>
       <c r="E5" s="9">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="F5" s="17">
-        <v>568</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="11">
-        <v>208.803</v>
+        <v>124.774</v>
       </c>
       <c r="C6" s="22">
-        <v>21.275687374161414</v>
+        <v>12.713670859248269</v>
       </c>
       <c r="D6" s="9">
-        <v>1187</v>
+        <v>1089</v>
       </c>
       <c r="E6" s="9">
-        <v>594</v>
+        <v>545</v>
       </c>
       <c r="F6" s="17">
-        <v>593</v>
+        <v>543</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="11">
-        <v>124.774</v>
-      </c>
-      <c r="C7" s="22">
-        <v>12.713670859248269</v>
+    <row r="7" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7">
+        <v>15.888999999999999</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1.3580190989330887</v>
       </c>
       <c r="D7" s="9">
-        <v>1089</v>
+        <v>977</v>
       </c>
       <c r="E7" s="9">
-        <v>545</v>
+        <v>497</v>
       </c>
       <c r="F7" s="17">
-        <v>543</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>0</v>
+      <c r="A8" s="14" t="s">
+        <v>2</v>
       </c>
       <c r="B8" s="7">
-        <v>15.888999999999999</v>
-      </c>
-      <c r="C8" s="23">
-        <v>1.3580190989330887</v>
-      </c>
-      <c r="D8" s="9">
-        <v>977</v>
+        <v>62.091000000000001</v>
+      </c>
+      <c r="C8" s="8">
+        <v>5.3068641117662798</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1182</v>
       </c>
       <c r="E8" s="9">
-        <v>497</v>
+        <v>582</v>
       </c>
       <c r="F8" s="17">
-        <v>480</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>2</v>
+    <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="B9" s="7">
-        <v>62.091000000000001</v>
+        <v>119.666</v>
       </c>
       <c r="C9" s="8">
-        <v>5.3068641117662798</v>
+        <v>10.227749606200957</v>
       </c>
       <c r="D9" s="24">
-        <v>1182</v>
+        <v>1167</v>
       </c>
       <c r="E9" s="9">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="F9" s="17">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>1</v>
+    <row r="10" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>3</v>
       </c>
       <c r="B10" s="7">
-        <v>119.666</v>
+        <v>4.6740000000000004</v>
       </c>
       <c r="C10" s="8">
-        <v>10.227749606200957</v>
+        <v>0.39948274079005963</v>
       </c>
       <c r="D10" s="24">
-        <v>1167</v>
+        <v>1181</v>
       </c>
       <c r="E10" s="9">
-        <v>573</v>
+        <v>604</v>
       </c>
       <c r="F10" s="17">
-        <v>595</v>
+        <v>577</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>3</v>
+    <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="B11" s="7">
-        <v>4.6740000000000004</v>
+        <v>11.81</v>
       </c>
       <c r="C11" s="8">
-        <v>0.39948274079005963</v>
+        <v>1.0093904939517766</v>
       </c>
       <c r="D11" s="24">
-        <v>1181</v>
+        <v>1273</v>
       </c>
       <c r="E11" s="9">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="F11" s="17">
-        <v>577</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="7">
-        <v>11.81</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1.0093904939517766</v>
-      </c>
-      <c r="D12" s="24">
-        <v>1273</v>
+        <v>48.143000000000001</v>
+      </c>
+      <c r="C12" s="23">
+        <v>4.1147406054462641</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1083</v>
       </c>
       <c r="E12" s="9">
-        <v>612</v>
-      </c>
-      <c r="F12" s="17">
-        <v>661</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="F12" s="24">
+        <v>527</v>
+      </c>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="7">
-        <v>48.143000000000001</v>
-      </c>
-      <c r="C13" s="23">
-        <v>4.1147406054462641</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1083</v>
-      </c>
-      <c r="E13" s="9">
-        <v>556</v>
-      </c>
-      <c r="F13" s="24">
-        <v>527</v>
-      </c>
-      <c r="G13" s="12"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
     </row>
     <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -2142,30 +2152,30 @@
       <c r="T17" s="25"/>
       <c r="U17" s="25"/>
     </row>
-    <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
     </row>
-    <row r="19" spans="1:21" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -2188,33 +2198,7 @@
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
     </row>
-    <row r="20" spans="1:21" s="18" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.65" top="0.8" bottom="0.7" header="0.5" footer="0.5"/>
   <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
